--- a/SA_reaction_sort.xlsx
+++ b/SA_reaction_sort.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Rxr\Select_reaction_species\UnionReaction\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Rxr\Select_reaction_species\UnionReaction\Uncertainty optimization Arrhenius\1Uncertainty\Data_convert\rxr_uncertainty_overall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E0DF3F-75F8-4337-9E1A-114F34D067A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F6653F-8457-4A42-A717-D99D9995DF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50280" yWindow="3030" windowWidth="20250" windowHeight="17355" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CO" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="IDT_top_20" sheetId="5" r:id="rId5"/>
     <sheet name="ALL_merge" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="131">
   <si>
     <t xml:space="preserve"> O2+H&lt;=&gt;O+OH</t>
   </si>
@@ -376,10 +376,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>R10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>R16</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -409,6 +405,34 @@
   </si>
   <si>
     <t>Selected the more sensitive 57 reactions from the 32 conditions of IDT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reverse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2(ab initio by us)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R13(same to 83)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>same to 408</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>same to 412</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R9</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -416,7 +440,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,8 +491,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,6 +515,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -524,14 +567,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3393,30 +3437,36 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="43.1328125" customWidth="1"/>
     <col min="3" max="3" width="11.796875" customWidth="1"/>
-    <col min="4" max="4" width="5.265625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="21.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.5">
+      <c r="G1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.5">
       <c r="A2" s="4">
         <v>254</v>
       </c>
@@ -3426,12 +3476,12 @@
       <c r="C2" s="4">
         <v>0.87539829000000002</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.5">
       <c r="A3" s="4">
         <v>99</v>
       </c>
@@ -3441,12 +3491,12 @@
       <c r="C3" s="4">
         <v>0.65681542000000004</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.5">
       <c r="A4" s="4">
         <v>56</v>
       </c>
@@ -3456,14 +3506,14 @@
       <c r="C4" s="4">
         <v>0.59201528000000003</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>122</v>
+      <c r="D4" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>392</v>
       </c>
@@ -3474,7 +3524,7 @@
         <v>0.54683064999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>441</v>
       </c>
@@ -3484,8 +3534,11 @@
       <c r="C6">
         <v>0.45771749</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>156</v>
       </c>
@@ -3495,8 +3548,11 @@
       <c r="C7">
         <v>0.450984</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>407</v>
       </c>
@@ -3506,8 +3562,14 @@
       <c r="C8">
         <v>0.45062733999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>415</v>
       </c>
@@ -3517,8 +3579,11 @@
       <c r="C9">
         <v>0.37346263000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>401</v>
       </c>
@@ -3528,9 +3593,12 @@
       <c r="C10">
         <v>0.35162814999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="E10" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.5">
+      <c r="A11" s="9">
         <v>400</v>
       </c>
       <c r="B11" t="s">
@@ -3539,8 +3607,17 @@
       <c r="C11">
         <v>0.35010827999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>142</v>
       </c>
@@ -3550,8 +3627,11 @@
       <c r="C12">
         <v>0.34786904000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>150</v>
       </c>
@@ -3561,8 +3641,11 @@
       <c r="C13">
         <v>0.33740017</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>399</v>
       </c>
@@ -3572,9 +3655,12 @@
       <c r="C14">
         <v>0.31799208000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="E14" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
         <v>404</v>
       </c>
       <c r="B15" t="s">
@@ -3583,9 +3669,15 @@
       <c r="C15">
         <v>0.31474419999999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
         <v>411</v>
       </c>
       <c r="B16" t="s">
@@ -3594,8 +3686,17 @@
       <c r="C16">
         <v>0.28909845000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>72</v>
       </c>
@@ -3605,11 +3706,11 @@
       <c r="C17" s="3">
         <v>0.28333987999999999</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>420</v>
       </c>
@@ -3620,7 +3721,7 @@
         <v>0.24088771</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>395</v>
       </c>
@@ -3631,7 +3732,7 @@
         <v>0.24002936999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>209</v>
       </c>
@@ -3642,7 +3743,7 @@
         <v>0.23759659</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>397</v>
       </c>
@@ -3653,7 +3754,7 @@
         <v>0.23666222000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>403</v>
       </c>
@@ -3664,7 +3765,7 @@
         <v>0.20734437</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>85</v>
       </c>
@@ -3674,23 +3775,32 @@
       <c r="C23" s="3">
         <v>0.20155522000000001</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
         <v>171</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="8">
         <v>0.19684710999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="D24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
         <v>440</v>
       </c>
       <c r="B25" t="s">
@@ -3700,8 +3810,8 @@
         <v>0.18859228</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
         <v>12</v>
       </c>
       <c r="B26" t="s">
@@ -3711,8 +3821,8 @@
         <v>0.18275559</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
         <v>412</v>
       </c>
       <c r="B27" t="s">
@@ -3722,8 +3832,8 @@
         <v>0.15984767999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
         <v>160</v>
       </c>
       <c r="B28" t="s">
@@ -3733,8 +3843,8 @@
         <v>0.15865098</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="10">
         <v>191</v>
       </c>
       <c r="B29" t="s">
@@ -3744,8 +3854,8 @@
         <v>0.15800125000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
         <v>93</v>
       </c>
       <c r="B30" t="s">
@@ -3755,8 +3865,8 @@
         <v>0.13967571000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
         <v>224</v>
       </c>
       <c r="B31" t="s">
@@ -3766,8 +3876,8 @@
         <v>0.11457244</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
         <v>208</v>
       </c>
       <c r="B32" t="s">
@@ -3777,8 +3887,8 @@
         <v>0.11244973</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
         <v>408</v>
       </c>
       <c r="B33" t="s">
@@ -3788,18 +3898,27 @@
         <v>9.6594667999999995E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
         <v>213</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="8">
         <v>8.8664681999999995E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>446</v>
       </c>
@@ -3810,7 +3929,7 @@
         <v>8.8086866999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>214</v>
       </c>
@@ -3820,11 +3939,11 @@
       <c r="C36" s="3">
         <v>8.7661338000000005E-2</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>155</v>
       </c>
@@ -3835,7 +3954,7 @@
         <v>7.1997670999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>215</v>
       </c>
@@ -3845,11 +3964,11 @@
       <c r="C38" s="3">
         <v>7.0509809000000007E-2</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.5">
+      <c r="D38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.5">
       <c r="A39" s="2">
         <v>79</v>
       </c>
@@ -3859,14 +3978,14 @@
       <c r="C39" s="2">
         <v>7.0447346999999993E-2</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>123</v>
+      <c r="D39" t="s">
+        <v>122</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>141</v>
       </c>
@@ -3877,7 +3996,7 @@
         <v>6.8192995000000006E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>96</v>
       </c>
@@ -3888,7 +4007,7 @@
         <v>6.7673435000000004E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.5">
       <c r="A42" s="4">
         <v>143</v>
       </c>
@@ -3898,12 +4017,12 @@
       <c r="C42" s="4">
         <v>6.4613628000000006E-2</v>
       </c>
-      <c r="D42" s="7"/>
+      <c r="D42" s="6"/>
       <c r="E42" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>54</v>
       </c>
@@ -3914,7 +4033,7 @@
         <v>6.4609960999999994E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>275</v>
       </c>
@@ -3925,7 +4044,7 @@
         <v>6.3284729999999997E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>94</v>
       </c>
@@ -3936,7 +4055,7 @@
         <v>5.6482827999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>162</v>
       </c>
@@ -3947,7 +4066,7 @@
         <v>5.4465211999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>82</v>
       </c>
@@ -3957,11 +4076,11 @@
       <c r="C47" s="3">
         <v>5.2983308999999999E-2</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>84</v>
       </c>
@@ -3971,8 +4090,8 @@
       <c r="C48" s="3">
         <v>4.7452578000000002E-2</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>119</v>
+      <c r="D48" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -4040,8 +4159,8 @@
       <c r="C54" s="3">
         <v>2.3889871999999999E-2</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>119</v>
+      <c r="D54" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
